--- a/Python/lambor_Inputbox_XZHYtest.xlsx
+++ b/Python/lambor_Inputbox_XZHYtest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>inputbox_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +29,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]/div/input</t>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[5]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[7]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[9]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[10]/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[11]/div[1]/textarea</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[1]/div[1]/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[1]/div[2]/div/div[1]/div/form/div[1]</t>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[3]/div[1]/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[3]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[7]/div[2]/a[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[9]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[10]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[11]/div[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div/form/div[5]/div[2]/a</t>
   </si>
 </sst>
 </file>
@@ -362,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -385,10 +421,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
